--- a/app/files/Lecturers List - template.xlsx
+++ b/app/files/Lecturers List - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/Documents/Degree/Semester8/6000CEM_Individual_Project_Preparation/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB8E81-8F52-6C43-ABA8-1DB8BBE10EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CE8F13-B693-4A40-938A-80AE6E03FC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11520" xr2:uid="{2BE589B7-ED1B-B049-822C-7EFBE48C25F6}"/>
   </bookViews>
@@ -148,15 +148,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -495,7 +494,7 @@
   <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -676,7 +675,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6058E8F9-3723-F249-91EA-D6510570CFA9}">
-  <dimension ref="B2:G3"/>
+  <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
@@ -692,7 +691,7 @@
     <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -705,16 +704,12 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,18 +759,18 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>

--- a/app/files/Lecturers List - template.xlsx
+++ b/app/files/Lecturers List - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CE8F13-B693-4A40-938A-80AE6E03FC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C20BB30-00EF-3740-B6B9-6E8384C166DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11520" xr2:uid="{2BE589B7-ED1B-B049-822C-7EFBE48C25F6}"/>
   </bookViews>

--- a/app/files/Lecturers List - template.xlsx
+++ b/app/files/Lecturers List - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C20BB30-00EF-3740-B6B9-6E8384C166DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731C6B4-5AE1-D544-8AB1-FF4DEBECBF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11520" xr2:uid="{2BE589B7-ED1B-B049-822C-7EFBE48C25F6}"/>
   </bookViews>
@@ -534,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>123456781234</v>
+        <v>777777777777</v>
       </c>
     </row>
   </sheetData>
